--- a/biology/Zoologie/Bruchophagus/Bruchophagus.xlsx
+++ b/biology/Zoologie/Bruchophagus/Bruchophagus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruchophagus est un genre d'insectes hyménoptères de la famille des Eurytomidae. Ces espèces parasitent des graines de plantes, particulièrement les Asphodèles.
 </t>
@@ -511,9 +523,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Bruchophagus s'attaquent principalement aux graines des plantes qu'ils parasitent. Dans le sud de la France, ils s'attaquent aux capsules des Asphodèles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Bruchophagus s'attaquent principalement aux graines des plantes qu'ils parasitent. Dans le sud de la France, ils s'attaquent aux capsules des Asphodèles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 juin 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 juin 2023) :
 Bruchophagus abnormis Zerova, 1984
 Bruchophagus abscedus Askew, 2019
 Bruchophagus acaciae (Cameron, 1910)
@@ -696,10 +712,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Bruchophagus Ashmead, 1888[2].
-Bruchophagus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Bruchophagus Ashmead, 1888.
+Bruchophagus a pour synonymes :
 Eurysystole Girault, 1913
 Parabruchophagus Zerova, 1992
 Phylloxeroxenoides Girault, 1913
